--- a/Consumer Discretionary.xlsx
+++ b/Consumer Discretionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\CompanyResearchModels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A574F88-B11C-4D96-9E74-1F5825DD96BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE11BD0-3F15-4294-98FE-3D24F195A534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E34F63A2-7726-4736-8973-719F58407E02}"/>
+    <workbookView xWindow="34800" yWindow="165" windowWidth="14235" windowHeight="15495" activeTab="1" xr2:uid="{E34F63A2-7726-4736-8973-719F58407E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Apparel Retail" sheetId="8" r:id="rId8"/>
     <sheet name="Home Improvement Retail" sheetId="9" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="71">
   <si>
     <t>Main</t>
   </si>
@@ -254,6 +257,9 @@
   </si>
   <si>
     <t>Consumer Discretionary &gt;=100B</t>
+  </si>
+  <si>
+    <t>Atlanta, Georgia, United States</t>
   </si>
 </sst>
 </file>
@@ -409,6 +415,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="L4">
+            <v>994</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>1659</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>53383</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="19">
+          <cell r="N19">
+            <v>4287</v>
+          </cell>
+          <cell r="O19">
+            <v>5299</v>
+          </cell>
+          <cell r="P19">
+            <v>4443</v>
+          </cell>
+          <cell r="Q19">
+            <v>3811</v>
+          </cell>
+          <cell r="AB19">
+            <v>17840</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="N75">
+            <v>4650</v>
+          </cell>
+          <cell r="O75">
+            <v>4690</v>
+          </cell>
+          <cell r="P75">
+            <v>3415</v>
+          </cell>
+          <cell r="Q75">
+            <v>3570</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30645541-A0D5-48CA-B6E3-F6F3A3861D67}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -808,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA41E61C-8E11-44B4-BCDA-2A9E123F45F7}">
   <dimension ref="A1:AV14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1091,7 +1163,7 @@
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D5" t="s">
@@ -1100,41 +1172,77 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="19">
+        <v>358.69</v>
+      </c>
       <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20"/>
+        <f t="shared" ref="G5" si="0">+F5*J5</f>
+        <v>356537.86</v>
+      </c>
+      <c r="H5" s="20">
+        <f>+[1]Main!$L$6-[1]Main!$L$7</f>
+        <v>-51724</v>
+      </c>
       <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
+        <f t="shared" ref="I5" si="1">+G5-H5</f>
+        <v>408261.86</v>
+      </c>
+      <c r="J5" s="20">
+        <f>+[1]Main!$L$4</f>
+        <v>994</v>
+      </c>
+      <c r="K5" s="21">
+        <v>45771</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="N5" s="20">
+        <f>+SUM([1]Model!$N$19:$Q$19)</f>
+        <v>17840</v>
+      </c>
+      <c r="O5" s="20">
+        <f>+[1]Model!$AB$19</f>
+        <v>17840</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="24" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="24" t="e">
-        <v>#DIV/0!</v>
+      <c r="R5" s="24">
+        <f t="shared" ref="R5:U5" si="2">+$I5/N5</f>
+        <v>22.88463340807175</v>
+      </c>
+      <c r="S5" s="24">
+        <f t="shared" si="2"/>
+        <v>22.88463340807175</v>
       </c>
       <c r="T5" s="24" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U5" s="24" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="24" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="25"/>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V5" s="20">
+        <f>+SUM([1]Model!$N$75:$Q$75)</f>
+        <v>16325</v>
+      </c>
+      <c r="W5" s="24">
+        <f t="shared" ref="W5" si="3">+$I5/V5</f>
+        <v>25.008383460949464</v>
+      </c>
+      <c r="X5" s="23">
+        <v>0.27</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>1978</v>
+      </c>
+      <c r="Z5" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="AA5" s="26" t="s">
         <v>36</v>
       </c>
@@ -1631,21 +1739,22 @@
     <hyperlink ref="C4" r:id="rId4" xr:uid="{04386A68-513B-4F2E-A3B8-607A2420E642}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{26A1C0C2-2688-46D6-B83E-2E7B5AD96E28}"/>
     <hyperlink ref="AA4" r:id="rId6" location="quarterly-disclosure" xr:uid="{5CB3D46A-4303-4094-B57B-87772273A0DE}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{A188F5A7-96A5-4F15-98B7-B9DB5D6154AB}"/>
-    <hyperlink ref="AA5" r:id="rId8" xr:uid="{0CFB839D-01A0-413A-BB79-29DB8CA30811}"/>
-    <hyperlink ref="AA6" r:id="rId9" xr:uid="{348B3D0D-E1A7-4D20-82D7-F3FBD88CE38A}"/>
-    <hyperlink ref="AA7" r:id="rId10" xr:uid="{E64F349C-33EA-46DF-940B-9C1CF432E1B3}"/>
-    <hyperlink ref="C8" r:id="rId11" xr:uid="{6BABDDEC-E767-4CB1-803E-56A61B89DDC3}"/>
-    <hyperlink ref="B8" r:id="rId12" xr:uid="{BE1FAC60-7CA5-4F17-A2C7-149EFD775BC1}"/>
-    <hyperlink ref="AA8" r:id="rId13" xr:uid="{5FD0DFD7-0145-4746-83F5-39B677C7F6E2}"/>
-    <hyperlink ref="AA9" r:id="rId14" xr:uid="{80BE52A5-C849-41AA-B6BD-230A89B881EB}"/>
-    <hyperlink ref="C10" r:id="rId15" xr:uid="{7DD99685-7953-449F-B1F4-569DDC891F58}"/>
-    <hyperlink ref="AA10" r:id="rId16" xr:uid="{EA76EDD6-B5E3-4FC1-9A8D-238C59533F9E}"/>
-    <hyperlink ref="C11" r:id="rId17" xr:uid="{968BA2BD-3E1D-4B5F-A8B9-E26D1F6981C6}"/>
-    <hyperlink ref="AA11" r:id="rId18" xr:uid="{3D54F82B-FCA9-4D40-A27A-441C555F1257}"/>
-    <hyperlink ref="AA12" r:id="rId19" xr:uid="{65E30E3E-D37B-4918-9211-3445256D442E}"/>
-    <hyperlink ref="AA13" r:id="rId20" xr:uid="{6E64E418-A246-4642-91D6-14ED119F9902}"/>
-    <hyperlink ref="AA14" r:id="rId21" xr:uid="{517556C8-B161-405B-9426-06E38BE46576}"/>
+    <hyperlink ref="AA6" r:id="rId7" xr:uid="{348B3D0D-E1A7-4D20-82D7-F3FBD88CE38A}"/>
+    <hyperlink ref="AA7" r:id="rId8" xr:uid="{E64F349C-33EA-46DF-940B-9C1CF432E1B3}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{6BABDDEC-E767-4CB1-803E-56A61B89DDC3}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{BE1FAC60-7CA5-4F17-A2C7-149EFD775BC1}"/>
+    <hyperlink ref="AA8" r:id="rId11" xr:uid="{5FD0DFD7-0145-4746-83F5-39B677C7F6E2}"/>
+    <hyperlink ref="AA9" r:id="rId12" xr:uid="{80BE52A5-C849-41AA-B6BD-230A89B881EB}"/>
+    <hyperlink ref="C10" r:id="rId13" xr:uid="{7DD99685-7953-449F-B1F4-569DDC891F58}"/>
+    <hyperlink ref="AA10" r:id="rId14" xr:uid="{EA76EDD6-B5E3-4FC1-9A8D-238C59533F9E}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{968BA2BD-3E1D-4B5F-A8B9-E26D1F6981C6}"/>
+    <hyperlink ref="AA11" r:id="rId16" xr:uid="{3D54F82B-FCA9-4D40-A27A-441C555F1257}"/>
+    <hyperlink ref="AA12" r:id="rId17" xr:uid="{65E30E3E-D37B-4918-9211-3445256D442E}"/>
+    <hyperlink ref="AA13" r:id="rId18" xr:uid="{6E64E418-A246-4642-91D6-14ED119F9902}"/>
+    <hyperlink ref="AA14" r:id="rId19" xr:uid="{517556C8-B161-405B-9426-06E38BE46576}"/>
+    <hyperlink ref="B5" r:id="rId20" xr:uid="{04B7C769-6E45-41FC-A5DC-ADF210A7FF44}"/>
+    <hyperlink ref="AA5" r:id="rId21" xr:uid="{C3018DE7-229F-463C-B280-47B8D2A88F11}"/>
+    <hyperlink ref="C5" r:id="rId22" xr:uid="{2FA87BC0-30BF-4460-898D-22C436A54F5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
